--- a/spreadsheets/Vladimir.xlsx
+++ b/spreadsheets/Vladimir.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\champion files\sent out\completed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FBFD4D-D522-464F-B6A8-31E854D21CF2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465E94FB-5E18-4B06-8814-F391DFFCE0FB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B545EDFA-6363-4C2A-9C9C-217A6E7A6E38}"/>
+    <workbookView xWindow="3060" yWindow="1320" windowWidth="21525" windowHeight="11835" xr2:uid="{B545EDFA-6363-4C2A-9C9C-217A6E7A6E38}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="175">
   <si>
     <t>id</t>
   </si>
@@ -329,18 +329,12 @@
     <t>https://www.twitch.tv/elite500/</t>
   </si>
   <si>
-    <t>https://euw.op.gg/summoner/champions/userName=purple%20dranker</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/channel/UCq9RISt1Nr8UqlNtXrXhEyQ/featured</t>
   </si>
   <si>
     <t>Challenger Vlad, Kass, and Camille main, Season 8 Peak 552lp, Season 9 finish 669lp Chall.</t>
   </si>
   <si>
-    <t>https://i.imgur.com/4wrbLZP.png</t>
-  </si>
-  <si>
     <t>Follow Elite500 for challenger tier mid content.</t>
   </si>
   <si>
@@ -389,9 +383,6 @@
     <t>Take ignite or rush morellos. You need CDR as well so CDR boots aren't bad. You can't kill each other, but you outscale in teamfights. He wins 1v1 with spirit visage.</t>
   </si>
   <si>
-    <t>Spam Q on him, don’t let him use Q on the wave. Hard to match his romas but you can kill him if your jungler has CC and you bait his E. Morello late game cuts his ult heal.</t>
-  </si>
-  <si>
     <t>Play mindgames with her parry, release e randomly, q spam and buy cdr. Morellos helps with heal reduction.</t>
   </si>
   <si>
@@ -549,6 +540,18 @@
   </si>
   <si>
     <t>You lose hard early, but as soon as you have protobelt or 2 CDR items, you win. Outrun him with phase rush.</t>
+  </si>
+  <si>
+    <t>discord</t>
+  </si>
+  <si>
+    <t>https://euw.op.gg/summoner/userName=elite500</t>
+  </si>
+  <si>
+    <t>Spam Q on him, don’t let him use Q on the wave. Hard to match his roams but you can kill him if your jungler has CC and you bait his E. Morello late game cuts his ult heal.</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Tu27LR1.png</t>
   </si>
 </sst>
 </file>
@@ -1027,8 +1030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1FF1A3E-B1DC-4DEF-A1FF-05C516225EE7}">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,7 +1102,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>100</v>
+        <v>172</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
@@ -1110,7 +1113,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
@@ -1118,31 +1121,36 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s">
-        <v>102</v>
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1158,9 +1166,9 @@
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{E7354388-3F45-4E13-89C7-BE115C39C3B2}"/>
     <hyperlink ref="B5" r:id="rId2" xr:uid="{806DDB87-76EE-4082-9CD3-742ED18FC4C9}"/>
-    <hyperlink ref="B6" r:id="rId3" display="https://euw.op.gg/summoner/champions/userName=purple dranker" xr:uid="{13EDC316-2F54-483D-801E-B98CBA62FC9E}"/>
-    <hyperlink ref="B7" r:id="rId4" xr:uid="{5DAA52F1-292B-4D65-A3FC-721FCD47B7A5}"/>
-    <hyperlink ref="B8" r:id="rId5" xr:uid="{6CC55D71-2AFA-43D2-AF72-8E6AAAE4824E}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{5DAA52F1-292B-4D65-A3FC-721FCD47B7A5}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{C34D9C41-B468-486F-B03B-83AA2A8739EF}"/>
+    <hyperlink ref="B9" r:id="rId5" xr:uid="{62D39371-E51B-4DF9-A6A6-6AFCD3C0398F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
@@ -1172,8 +1180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{095CAD4B-6F75-45EC-9CCF-5590BB3785E1}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1201,7 +1209,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>18</v>
@@ -1215,7 +1223,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>19</v>
@@ -1229,7 +1237,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>20</v>
@@ -1243,7 +1251,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>21</v>
@@ -1257,7 +1265,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>22</v>
@@ -1271,7 +1279,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>23</v>
@@ -1285,7 +1293,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1296,7 +1304,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1307,7 +1315,7 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1318,7 +1326,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1329,7 +1337,7 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1340,7 +1348,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1351,7 +1359,7 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1362,7 +1370,7 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1373,7 +1381,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1384,7 +1392,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1395,7 +1403,7 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1406,7 +1414,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1417,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1428,7 +1436,7 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1439,7 +1447,7 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1450,7 +1458,7 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1461,7 +1469,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1472,7 +1480,7 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1483,7 +1491,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1494,7 +1502,7 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1505,7 +1513,7 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1516,7 +1524,7 @@
         <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1527,7 +1535,7 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1538,7 +1546,7 @@
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1549,7 +1557,7 @@
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1560,7 +1568,7 @@
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1571,7 +1579,7 @@
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1582,7 +1590,7 @@
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1593,7 +1601,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1604,7 +1612,7 @@
         <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -1616,8 +1624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A2A11A-8C34-4DB0-87EC-6C11DACD08FD}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1645,7 +1653,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>18</v>
@@ -1659,7 +1667,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>19</v>
@@ -1673,7 +1681,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>20</v>
@@ -1687,7 +1695,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>21</v>
@@ -1701,7 +1709,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>22</v>
@@ -1715,7 +1723,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>23</v>
@@ -1729,7 +1737,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1740,7 +1748,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1751,7 +1759,7 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1762,7 +1770,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1773,7 +1781,7 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1784,7 +1792,7 @@
         <v>9.5</v>
       </c>
       <c r="C13" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1795,7 +1803,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1806,7 +1814,7 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1817,7 +1825,7 @@
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1828,7 +1836,7 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1839,7 +1847,7 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1850,7 +1858,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1861,7 +1869,7 @@
         <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1872,7 +1880,7 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1883,7 +1891,7 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1894,7 +1902,7 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1905,7 +1913,7 @@
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1916,7 +1924,7 @@
         <v>9.5</v>
       </c>
       <c r="C25" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1927,7 +1935,7 @@
         <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1938,7 +1946,7 @@
         <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1949,7 +1957,7 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1960,7 +1968,7 @@
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1971,7 +1979,7 @@
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1982,7 +1990,7 @@
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1993,7 +2001,7 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -2004,7 +2012,7 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -2015,7 +2023,7 @@
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -2026,18 +2034,18 @@
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B36">
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -2048,7 +2056,7 @@
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -2059,7 +2067,7 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -2070,7 +2078,7 @@
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -2081,7 +2089,7 @@
         <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -2092,7 +2100,7 @@
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -2103,7 +2111,7 @@
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -2114,7 +2122,7 @@
         <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
